--- a/01read_excel.xlsx
+++ b/01read_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimPanda\Documents\판다스책\챕터3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89998506-19AC-4425-BBE9-D3BF28E810DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12523F32-75A6-4117-91F1-4921F7A33349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="1956" windowWidth="22008" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2184" windowWidth="15084" windowHeight="8532" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본값" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="dtype" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>이름</t>
   </si>
@@ -102,6 +103,10 @@
   </si>
   <si>
     <t>권보아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -847,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B677FEED-2854-4763-8B95-DF9A12957FD4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -933,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068955F1-9FC7-4AB2-A9DE-8D8C01F39056}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1017,79 +1022,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCFE2C3-302E-4D55-8EA5-9A1185F049FC}">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>3</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
         <v>63</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <v>93</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="11">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
         <v>89</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="2">
         <v>83</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
         <v>83</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="2">
         <v>76</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
         <v>94</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="7">
         <v>88</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="8">
         <v>73</v>
       </c>
     </row>
@@ -1103,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30F5824-FC25-42D7-AB59-77E91B98ACCF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1187,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
